--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -650,61 +650,61 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="O2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.2</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>7</v>
@@ -713,16 +713,16 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>1.17</v>
@@ -784,22 +784,22 @@
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
         <v>2.63</v>
@@ -811,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V3" t="n">
         <v>12</v>
       </c>
       <c r="W3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X3" t="n">
         <v>29</v>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -888,36 +888,96 @@
           <t>Hartberg</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1013,13 +1073,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1034,10 +1094,10 @@
         <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P6" t="n">
         <v>1.25</v>
@@ -1046,10 +1106,10 @@
         <v>3.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
         <v>9.5</v>
@@ -1058,49 +1118,49 @@
         <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>41</v>
       </c>
       <c r="AD6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1135,13 +1195,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1162,10 +1222,10 @@
         <v>2.1</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
         <v>1.57</v>
@@ -1174,19 +1234,19 @@
         <v>2.25</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
         <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
@@ -1198,19 +1258,19 @@
         <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="n">
         <v>126</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1266,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1278,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1379,13 +1439,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.13</v>
@@ -1400,28 +1460,28 @@
         <v>2.42</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q9" t="n">
         <v>2.32</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
         <v>6.2</v>
       </c>
       <c r="U9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>9.25</v>
@@ -1430,7 +1490,7 @@
         <v>28</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>37</v>
@@ -1442,7 +1502,7 @@
         <v>5.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
         <v>80</v>
@@ -1451,10 +1511,10 @@
         <v>800</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1501,13 +1561,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.11</v>
@@ -1522,16 +1582,16 @@
         <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R10" t="n">
         <v>2.05</v>
@@ -1540,22 +1600,22 @@
         <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="U10" t="n">
         <v>8.75</v>
       </c>
       <c r="V10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>19</v>
       </c>
-      <c r="X10" t="n">
-        <v>21</v>
-      </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="n">
         <v>5.7</v>
@@ -1564,7 +1624,7 @@
         <v>5.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
         <v>110</v>
@@ -1573,22 +1633,22 @@
         <v>600</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1623,19 +1683,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1665,28 +1725,28 @@
         <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>67</v>
@@ -1695,7 +1755,7 @@
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1989,13 +2049,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2028,7 +2088,7 @@
         <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
         <v>11</v>
@@ -2049,10 +2109,10 @@
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>41</v>
@@ -2543,19 +2603,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -2576,22 +2636,22 @@
         <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
         <v>6.5</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
         <v>11</v>
       </c>
       <c r="W21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X21" t="n">
         <v>26</v>
@@ -2615,10 +2675,10 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -2727,55 +2787,55 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="U23" t="n">
         <v>11.75</v>
       </c>
       <c r="V23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X23" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB23" t="n">
         <v>11.25</v>
@@ -2787,10 +2847,10 @@
         <v>300</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG23" t="n">
         <v>7.7</v>
@@ -2802,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -3079,19 +3139,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J26" t="n">
         <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3118,10 +3178,10 @@
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
         <v>11</v>
@@ -3130,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
@@ -3151,16 +3211,16 @@
         <v>251</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
         <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
@@ -3340,10 +3400,10 @@
         <v>6.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N29" t="n">
         <v>2.35</v>
@@ -3355,7 +3415,7 @@
         <v>1.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R29" t="n">
         <v>2</v>
@@ -3388,14 +3448,14 @@
         <v>6.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC29" t="n">
         <v>120</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -3407,10 +3467,10 @@
         <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -3445,13 +3505,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3466,10 +3526,10 @@
         <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P30" t="n">
         <v>1.3</v>
@@ -3478,28 +3538,28 @@
         <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
@@ -3508,28 +3568,28 @@
         <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF30" t="n">
         <v>11</v>
       </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -3576,10 +3636,10 @@
         <v>1.48</v>
       </c>
       <c r="J31" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>1.02</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
         <v>1.08</v>
@@ -3698,22 +3758,22 @@
         <v>1.91</v>
       </c>
       <c r="J32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -3811,31 +3871,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P33" t="n">
         <v>1.22</v>
@@ -3844,22 +3904,22 @@
         <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
         <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V33" t="n">
         <v>9</v>
       </c>
       <c r="W33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X33" t="n">
         <v>12</v>
@@ -3892,10 +3952,10 @@
         <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
         <v>29</v>
@@ -3942,16 +4002,16 @@
         <v>5.5</v>
       </c>
       <c r="J34" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N34" t="n">
         <v>1.44</v>
@@ -4055,19 +4115,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.25</v>
@@ -4076,10 +4136,10 @@
         <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4094,52 +4154,52 @@
         <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W35" t="n">
+        <v>41</v>
+      </c>
+      <c r="X35" t="n">
         <v>29</v>
       </c>
-      <c r="X35" t="n">
-        <v>23</v>
-      </c>
       <c r="Y35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z35" t="n">
         <v>11</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>9</v>
       </c>
-      <c r="AF35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>26</v>
@@ -4177,13 +4237,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J36" t="n">
         <v>1.01</v>
@@ -4228,7 +4288,7 @@
         <v>26</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>26</v>
@@ -4255,7 +4315,7 @@
         <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
@@ -4308,22 +4368,22 @@
         <v>2.4</v>
       </c>
       <c r="J37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4558,16 +4618,16 @@
         <v>10</v>
       </c>
       <c r="L39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -4665,13 +4725,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -4707,7 +4767,7 @@
         <v>12</v>
       </c>
       <c r="U40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
@@ -4746,7 +4806,7 @@
         <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -4793,13 +4853,13 @@
         <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L41" t="n">
         <v>1.2</v>
@@ -4826,7 +4886,7 @@
         <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U41" t="n">
         <v>6.5</v>
@@ -4847,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
@@ -4856,7 +4916,7 @@
         <v>67</v>
       </c>
       <c r="AD41" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE41" t="n">
         <v>21</v>
@@ -5031,13 +5091,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H43" t="n">
         <v>3.6</v>
       </c>
       <c r="I43" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5109,7 +5169,7 @@
         <v>19</v>
       </c>
       <c r="AG43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
@@ -5165,7 +5225,7 @@
         <v>1.07</v>
       </c>
       <c r="K44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L44" t="n">
         <v>1.36</v>
@@ -5275,13 +5335,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5296,10 +5356,10 @@
         <v>4.33</v>
       </c>
       <c r="N45" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -5308,10 +5368,10 @@
         <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T45" t="n">
         <v>13</v>
@@ -5350,7 +5410,7 @@
         <v>9</v>
       </c>
       <c r="AF45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG45" t="n">
         <v>8.5</v>
@@ -5397,19 +5457,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H46" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I46" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="J46" t="n">
         <v>1.01</v>
       </c>
       <c r="K46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L46" t="n">
         <v>1.05</v>
@@ -5430,10 +5490,10 @@
         <v>5.5</v>
       </c>
       <c r="R46" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T46" t="n">
         <v>41</v>
@@ -5442,13 +5502,13 @@
         <v>51</v>
       </c>
       <c r="V46" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="X46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="n">
         <v>41</v>
@@ -5460,31 +5520,31 @@
         <v>15</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="n">
         <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI46" t="n">
         <v>10</v>
       </c>
       <c r="AJ46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -901,7 +901,7 @@
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -1326,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1338,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1439,25 +1439,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.13</v>
       </c>
       <c r="K9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
         <v>2.42</v>
@@ -1466,10 +1466,10 @@
         <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
         <v>1.91</v>
@@ -1481,22 +1481,22 @@
         <v>6.2</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AA9" t="n">
         <v>5.1</v>
@@ -1511,16 +1511,16 @@
         <v>800</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -1561,94 +1561,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>4.55</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="N10" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="U10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V10" t="n">
         <v>8.75</v>
       </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
       <c r="W10" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD10" t="n">
         <v>600</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1853,7 +1853,7 @@
         <v>12</v>
       </c>
       <c r="W12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X12" t="n">
         <v>29</v>
@@ -1877,13 +1877,13 @@
         <v>351</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF12" t="n">
         <v>9.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2183,19 +2183,19 @@
         <v>1.06</v>
       </c>
       <c r="K15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2354,36 +2354,92 @@
           <t>Nantong Zhiyun</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.93</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>60</v>
+      </c>
+      <c r="X17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2416,36 +2472,88 @@
           <t>Guangdong GZ-Power</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.57</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>32</v>
+      </c>
+      <c r="V18" t="n">
+        <v>17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2478,36 +2586,92 @@
           <t>Jaguares de Cordoba</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12</v>
+      </c>
+      <c r="W19" t="n">
+        <v>55</v>
+      </c>
+      <c r="X19" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2918,10 +3082,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3151,7 +3315,7 @@
         <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3260,36 +3424,90 @@
           <t>Pastoreo</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>120</v>
+      </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3322,36 +3540,90 @@
           <t>Tacuary</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>13</v>
+      </c>
+      <c r="V28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W28" t="n">
+        <v>37</v>
+      </c>
+      <c r="X28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>120</v>
+      </c>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AE28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3514,10 +3786,10 @@
         <v>2.05</v>
       </c>
       <c r="J30" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L30" t="n">
         <v>1.2</v>
@@ -3538,16 +3810,16 @@
         <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
         <v>12</v>
@@ -3568,19 +3840,19 @@
         <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
@@ -3871,25 +4143,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I33" t="n">
         <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>21</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>1.03</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N33" t="n">
         <v>1.4</v>
@@ -3910,7 +4182,7 @@
         <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
         <v>11</v>
@@ -3931,7 +4203,7 @@
         <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -3943,7 +4215,7 @@
         <v>101</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
         <v>29</v>
@@ -4237,13 +4509,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J36" t="n">
         <v>1.01</v>
@@ -4264,10 +4536,10 @@
         <v>2.1</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R36" t="n">
         <v>1.62</v>
@@ -4288,7 +4560,7 @@
         <v>26</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>26</v>
@@ -4315,13 +4587,13 @@
         <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH36" t="n">
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -4490,10 +4762,10 @@
         <v>1.33</v>
       </c>
       <c r="J38" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L38" t="n">
         <v>1.13</v>
@@ -4624,10 +4896,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O39" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -4725,13 +4997,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
@@ -4758,19 +5030,19 @@
         <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U40" t="n">
         <v>19</v>
       </c>
       <c r="V40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W40" t="n">
         <v>34</v>
@@ -4779,7 +5051,7 @@
         <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
         <v>15</v>
@@ -4800,7 +5072,7 @@
         <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
@@ -4856,10 +5128,10 @@
         <v>8.5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L41" t="n">
         <v>1.2</v>
@@ -5472,10 +5744,10 @@
         <v>29</v>
       </c>
       <c r="L46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N46" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2369,7 +2369,7 @@
         <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N17" t="n">
         <v>2.05</v>
@@ -2390,13 +2390,13 @@
         <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
         <v>19.5</v>
       </c>
       <c r="V17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W17" t="n">
         <v>60</v>
@@ -2408,7 +2408,7 @@
         <v>50</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>6.3</v>
@@ -2432,10 +2432,10 @@
         <v>8.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
@@ -3786,10 +3786,10 @@
         <v>2.05</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.2</v>
@@ -5744,10 +5744,10 @@
         <v>29</v>
       </c>
       <c r="L46" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N46" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -1094,10 +1094,10 @@
         <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P6" t="n">
         <v>1.25</v>
@@ -1439,94 +1439,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T9" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="U9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD9" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1561,94 +1561,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>4.55</v>
+        <v>4.05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="N10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="T10" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="U10" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB10" t="n">
         <v>17</v>
       </c>
-      <c r="Y10" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AC10" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AD10" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ10" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -2587,90 +2587,90 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="N19" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T19" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
         <v>18.5</v>
       </c>
       <c r="V19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="W19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="X19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD19" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2776,10 +2776,10 @@
         <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.53</v>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
         <v>2.27</v>
@@ -2978,16 +2978,16 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U23" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X23" t="n">
         <v>18.5</v>
@@ -3002,7 +3002,7 @@
         <v>5.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
         <v>45</v>
@@ -3023,7 +3023,7 @@
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
@@ -3669,80 +3669,80 @@
         <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="N29" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="T29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U29" t="n">
         <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -3777,13 +3777,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
         <v>1.03</v>
@@ -3819,7 +3819,7 @@
         <v>13</v>
       </c>
       <c r="U30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
         <v>12</v>
@@ -3855,13 +3855,13 @@
         <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
         <v>23</v>
@@ -4152,10 +4152,10 @@
         <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="L33" t="n">
         <v>1.13</v>
@@ -4164,10 +4164,10 @@
         <v>5.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P33" t="n">
         <v>1.22</v>
@@ -4286,10 +4286,10 @@
         <v>5.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P34" t="n">
         <v>1.22</v>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.5</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J35" t="n">
         <v>1.04</v>
@@ -4408,10 +4408,10 @@
         <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4429,22 +4429,22 @@
         <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y35" t="n">
         <v>34</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
         <v>7</v>
@@ -4453,25 +4453,25 @@
         <v>15</v>
       </c>
       <c r="AC35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
         <v>9</v>
       </c>
       <c r="AH35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="n">
         <v>17</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>15</v>
       </c>
       <c r="AJ35" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -889,19 +889,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
@@ -952,13 +952,13 @@
         <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -967,10 +967,10 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.36</v>
@@ -1716,13 +1716,13 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
         <v>8</v>
@@ -1734,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
@@ -1743,19 +1743,19 @@
         <v>8.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1764,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -4158,16 +4158,16 @@
         <v>12</v>
       </c>
       <c r="L33" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P33" t="n">
         <v>1.22</v>
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H34" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
@@ -4280,10 +4280,10 @@
         <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N34" t="n">
         <v>1.4</v>
@@ -4298,10 +4298,10 @@
         <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>10</v>
@@ -4310,10 +4310,10 @@
         <v>8.5</v>
       </c>
       <c r="V34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -4325,28 +4325,28 @@
         <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
         <v>151</v>
       </c>
       <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="n">
         <v>21</v>
       </c>
-      <c r="AF34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>17</v>
-      </c>
       <c r="AH34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
@@ -5250,22 +5250,22 @@
         <v>3.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>1.36</v>
@@ -5729,19 +5729,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J46" t="n">
         <v>1.01</v>
       </c>
       <c r="K46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L46" t="n">
         <v>1.05</v>
@@ -5774,13 +5774,13 @@
         <v>51</v>
       </c>
       <c r="V46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="W46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y46" t="n">
         <v>41</v>
@@ -5792,7 +5792,7 @@
         <v>15</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
         <v>34</v>
@@ -5810,7 +5810,7 @@
         <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -686,16 +686,16 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.73</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -892,10 +892,10 @@
         <v>1.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -928,7 +928,7 @@
         <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U4" t="n">
         <v>9.5</v>
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
         <v>10</v>
@@ -1130,10 +1130,10 @@
         <v>21</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1151,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>81</v>
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I9" t="n">
         <v>3.7</v>
@@ -1451,25 +1451,25 @@
         <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="R9" t="n">
         <v>1.75</v>
@@ -1496,10 +1496,10 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1511,7 +1511,7 @@
         <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1564,10 +1564,10 @@
         <v>1.87</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1576,13 +1576,13 @@
         <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="N10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O10" t="n">
         <v>1.65</v>
@@ -1594,13 +1594,13 @@
         <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="U10" t="n">
         <v>8</v>
@@ -1612,7 +1612,7 @@
         <v>15.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
         <v>32</v>
@@ -1630,7 +1630,7 @@
         <v>90</v>
       </c>
       <c r="AD10" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1698,10 +1698,10 @@
         <v>8.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N11" t="n">
         <v>2.1</v>
@@ -1716,10 +1716,10 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T11" t="n">
         <v>6.5</v>
@@ -1734,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
@@ -1755,7 +1755,7 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1764,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1844,10 +1844,10 @@
         <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
         <v>12</v>
@@ -1862,13 +1862,13 @@
         <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1880,19 +1880,19 @@
         <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
         <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2355,87 +2355,87 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N17" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O17" t="n">
         <v>1.6</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
         <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U17" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="V17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="X17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="n">
         <v>800</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>32</v>
@@ -2590,7 +2590,7 @@
         <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I19" t="n">
         <v>2.18</v>
@@ -2598,49 +2598,49 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="N19" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S19" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W19" t="n">
         <v>50</v>
       </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA19" t="n">
         <v>5.7</v>
@@ -2655,7 +2655,7 @@
         <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF19" t="n">
         <v>10.25</v>
@@ -2951,23 +2951,23 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
         <v>1.37</v>
@@ -2978,31 +2978,31 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V23" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X23" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z23" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
         <v>45</v>
@@ -3011,19 +3011,19 @@
         <v>300</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AG23" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -3183,19 +3183,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
         <v>1.5</v>
@@ -3216,19 +3216,19 @@
         <v>2.38</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T25" t="n">
         <v>6</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W25" t="n">
         <v>19</v>
@@ -3259,16 +3259,16 @@
         <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>41</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
         <v>1.07</v>
@@ -3348,10 +3348,10 @@
         <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X26" t="n">
         <v>26</v>
@@ -3381,16 +3381,16 @@
         <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -4143,31 +4143,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>4.33</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
         <v>1.22</v>
@@ -4197,10 +4197,10 @@
         <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA33" t="n">
         <v>9.5</v>
@@ -4224,7 +4224,7 @@
         <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>29</v>
@@ -4887,7 +4887,7 @@
         <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -4908,13 +4908,13 @@
         <v>2.75</v>
       </c>
       <c r="R39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U39" t="n">
         <v>12</v>
@@ -4932,13 +4932,13 @@
         <v>29</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
@@ -4947,13 +4947,13 @@
         <v>251</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
         <v>13</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
         <v>29</v>
@@ -4962,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5119,13 +5119,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5152,13 +5152,13 @@
         <v>3.4</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U41" t="n">
         <v>6.5</v>
@@ -5167,7 +5167,7 @@
         <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
@@ -5179,16 +5179,16 @@
         <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE41" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
@@ -910,10 +910,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -928,7 +928,7 @@
         <v>2.05</v>
       </c>
       <c r="T4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U4" t="n">
         <v>9.5</v>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>23</v>
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1469,25 +1469,25 @@
         <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S9" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X9" t="n">
         <v>19.5</v>
@@ -1499,7 +1499,7 @@
         <v>5.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1511,16 +1511,16 @@
         <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
         <v>37</v>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -2390,28 +2390,28 @@
         <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="V17" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="W17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
         <v>45</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB17" t="n">
         <v>15.5</v>
@@ -2420,13 +2420,13 @@
         <v>80</v>
       </c>
       <c r="AD17" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9</v>
@@ -2435,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2476,7 +2476,7 @@
         <v>5.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>1.57</v>
@@ -2487,13 +2487,13 @@
         <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2504,16 +2504,16 @@
         <v>1.83</v>
       </c>
       <c r="T18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="U18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V18" t="n">
         <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X18" t="n">
         <v>55</v>
@@ -2522,10 +2522,10 @@
         <v>55</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB18" t="n">
         <v>16</v>
@@ -2540,13 +2540,13 @@
         <v>6.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI18" t="n">
         <v>12.5</v>
@@ -2704,36 +2704,92 @@
           <t>Cartagena</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>10</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
+        <v>21</v>
+      </c>
+      <c r="X20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4280,10 +4336,10 @@
         <v>12</v>
       </c>
       <c r="L34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N34" t="n">
         <v>1.4</v>
@@ -4509,13 +4565,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H36" t="n">
         <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J36" t="n">
         <v>1.01</v>
@@ -4551,13 +4607,13 @@
         <v>11</v>
       </c>
       <c r="U36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X36" t="n">
         <v>21</v>
@@ -4581,16 +4637,16 @@
         <v>151</v>
       </c>
       <c r="AE36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG36" t="n">
         <v>9.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -1561,13 +1561,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="J10" t="n">
         <v>1.08</v>
@@ -1588,10 +1588,10 @@
         <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R10" t="n">
         <v>1.95</v>
@@ -1600,19 +1600,19 @@
         <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V10" t="n">
         <v>8.5</v>
       </c>
       <c r="W10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
         <v>32</v>
@@ -1621,7 +1621,7 @@
         <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
         <v>17</v>
@@ -1633,10 +1633,10 @@
         <v>900</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>14</v>
@@ -1645,7 +1645,7 @@
         <v>65</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ10" t="n">
         <v>50</v>
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1847,16 +1847,16 @@
         <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W12" t="n">
         <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
@@ -1871,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD12" t="n">
         <v>351</v>
@@ -1880,7 +1880,7 @@
         <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
         <v>9</v>
@@ -2049,13 +2049,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2088,10 +2088,10 @@
         <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
         <v>9</v>
@@ -2121,13 +2121,13 @@
         <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
         <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>34</v>
@@ -2473,27 +2473,27 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N18" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -2501,34 +2501,34 @@
         <v>1.78</v>
       </c>
       <c r="S18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y18" t="n">
         <v>55</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
         <v>75</v>
@@ -2540,16 +2540,16 @@
         <v>6.9</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2719,10 +2719,10 @@
         <v>1.38</v>
       </c>
       <c r="M20" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O20" t="n">
         <v>1.57</v>
@@ -2740,19 +2740,19 @@
         <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W20" t="n">
+        <v>23</v>
+      </c>
+      <c r="X20" t="n">
         <v>21</v>
-      </c>
-      <c r="X20" t="n">
-        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>35</v>
@@ -2773,22 +2773,22 @@
         <v>800</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3126,22 +3126,22 @@
         <v>2.63</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -4321,13 +4321,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H34" t="n">
         <v>5.5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>1.02</v>
@@ -4354,13 +4354,13 @@
         <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U34" t="n">
         <v>8.5</v>
@@ -4369,7 +4369,7 @@
         <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -4387,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="n">
         <v>151</v>
@@ -4399,7 +4399,7 @@
         <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
         <v>67</v>
@@ -5062,22 +5062,22 @@
         <v>2.05</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P40" t="n">
         <v>1.3</v>
@@ -5666,10 +5666,10 @@
         <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5696,10 +5696,10 @@
         <v>3.4</v>
       </c>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T45" t="n">
         <v>13</v>
@@ -5717,13 +5717,13 @@
         <v>29</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z45" t="n">
         <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB45" t="n">
         <v>15</v>
@@ -5735,7 +5735,7 @@
         <v>151</v>
       </c>
       <c r="AE45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF45" t="n">
         <v>9.5</v>
@@ -5788,7 +5788,7 @@
         <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I46" t="n">
         <v>1.25</v>
@@ -5863,7 +5863,7 @@
         <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH46" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -898,16 +898,16 @@
         <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
         <v>1.8</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
@@ -946,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -958,7 +958,7 @@
         <v>41</v>
       </c>
       <c r="AD4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -967,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1847,16 +1847,16 @@
         <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
         <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y12" t="n">
         <v>41</v>
@@ -1871,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>351</v>
@@ -1880,7 +1880,7 @@
         <v>6.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG12" t="n">
         <v>9</v>
@@ -1939,19 +1939,19 @@
         <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2049,13 +2049,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O14" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2587,42 +2587,42 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
         <v>2.92</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U19" t="n">
         <v>18</v>
@@ -2640,13 +2640,13 @@
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA19" t="n">
         <v>5.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
         <v>70</v>
@@ -2655,22 +2655,22 @@
         <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AG19" t="n">
         <v>8.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -2705,18 +2705,18 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
         <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
         <v>2.57</v>
@@ -2740,16 +2740,16 @@
         <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U20" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="V20" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
@@ -2773,19 +2773,19 @@
         <v>800</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
         <v>40</v>
@@ -3955,19 +3955,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H31" t="n">
         <v>4.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J31" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>1.02</v>
       </c>
       <c r="L31" t="n">
         <v>1.08</v>
@@ -4009,7 +4009,7 @@
         <v>34</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
         <v>26</v>
@@ -4030,7 +4030,7 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>9.5</v>
@@ -4199,19 +4199,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="L33" t="n">
         <v>1.1</v>
@@ -4226,22 +4226,22 @@
         <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T33" t="n">
+        <v>13</v>
+      </c>
+      <c r="U33" t="n">
         <v>12</v>
-      </c>
-      <c r="U33" t="n">
-        <v>11</v>
       </c>
       <c r="V33" t="n">
         <v>9</v>
@@ -4256,10 +4256,10 @@
         <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
         <v>13</v>
@@ -4268,16 +4268,16 @@
         <v>34</v>
       </c>
       <c r="AD33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF33" t="n">
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -4449,13 +4449,13 @@
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
         <v>1.25</v>
@@ -4494,13 +4494,13 @@
         <v>34</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>7</v>
@@ -4521,7 +4521,7 @@
         <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH35" t="n">
         <v>19</v>
@@ -4565,19 +4565,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1.22</v>
@@ -4604,7 +4604,7 @@
         <v>2.2</v>
       </c>
       <c r="T36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U36" t="n">
         <v>17</v>
@@ -5053,13 +5053,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5080,25 +5080,25 @@
         <v>2.1</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W40" t="n">
         <v>34</v>
@@ -5107,10 +5107,10 @@
         <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
@@ -5128,19 +5128,19 @@
         <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
       </c>
       <c r="AH40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -5419,13 +5419,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I43" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5458,19 +5458,19 @@
         <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W43" t="n">
+        <v>19</v>
+      </c>
+      <c r="X43" t="n">
         <v>17</v>
-      </c>
-      <c r="X43" t="n">
-        <v>15</v>
       </c>
       <c r="Y43" t="n">
         <v>26</v>
@@ -5479,13 +5479,13 @@
         <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="n">
         <v>201</v>
@@ -5494,16 +5494,16 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>41</v>
       </c>
       <c r="AI43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
@@ -5678,16 +5678,16 @@
         <v>15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P45" t="n">
         <v>1.3</v>
@@ -5806,10 +5806,10 @@
         <v>11</v>
       </c>
       <c r="N46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O46" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="P46" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB4" t="n">
         <v>13</v>
@@ -964,10 +964,10 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1445,58 +1445,58 @@
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AA9" t="n">
         <v>5.3</v>
@@ -1817,7 +1817,7 @@
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -2049,13 +2049,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>1.04</v>
@@ -2121,7 +2121,7 @@
         <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF14" t="n">
         <v>17</v>
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -2384,25 +2384,25 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
         <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V17" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="W17" t="n">
         <v>50</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="n">
         <v>45</v>
@@ -2423,22 +2423,22 @@
         <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AF17" t="n">
         <v>9.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
         <v>3.05</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2740,22 +2740,22 @@
         <v>1.75</v>
       </c>
       <c r="T20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>9.5</v>
       </c>
       <c r="W20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
         <v>7.7</v>
@@ -2773,19 +2773,19 @@
         <v>800</v>
       </c>
       <c r="AE20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ20" t="n">
         <v>40</v>
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2868,13 +2868,13 @@
         <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>29</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
         <v>41</v>
@@ -2883,7 +2883,7 @@
         <v>6</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB21" t="n">
         <v>19</v>
@@ -3180,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>51</v>
@@ -4199,13 +4199,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
         <v>26</v>
@@ -4271,13 +4271,13 @@
         <v>81</v>
       </c>
       <c r="AE33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
         <v>29</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -4286,7 +4286,7 @@
         <v>29</v>
       </c>
       <c r="AJ33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5312,10 +5312,10 @@
         <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
         <v>1.8</v>
@@ -5324,52 +5324,52 @@
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V42" t="n">
         <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
       </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
         <v>19</v>
@@ -5381,10 +5381,10 @@
         <v>41</v>
       </c>
       <c r="AI42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -5419,13 +5419,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I43" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5461,16 +5461,16 @@
         <v>8</v>
       </c>
       <c r="U43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V43" t="n">
         <v>9</v>
       </c>
       <c r="W43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
         <v>26</v>
@@ -5479,13 +5479,13 @@
         <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB43" t="n">
         <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD43" t="n">
         <v>201</v>
@@ -5494,7 +5494,7 @@
         <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
         <v>12</v>
@@ -5503,7 +5503,7 @@
         <v>41</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
         <v>34</v>
@@ -5550,22 +5550,22 @@
         <v>2.45</v>
       </c>
       <c r="J44" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O44" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P44" t="n">
         <v>1.44</v>
@@ -5788,10 +5788,10 @@
         <v>8</v>
       </c>
       <c r="H46" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="J46" t="n">
         <v>1.01</v>
@@ -5806,10 +5806,10 @@
         <v>11</v>
       </c>
       <c r="N46" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="O46" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="P46" t="n">
         <v>1.14</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -1439,94 +1439,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M9" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD9" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1805,19 +1805,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1939,7 +1939,7 @@
         <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
         <v>1.25</v>
@@ -1966,10 +1966,10 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
@@ -1993,7 +1993,7 @@
         <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD13" t="n">
         <v>201</v>
@@ -2014,7 +2014,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
         <v>2.88</v>
@@ -2868,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>29</v>
@@ -3010,20 +3010,20 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="P23" t="n">
         <v>1.37</v>
@@ -3034,10 +3034,10 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="U23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V23" t="n">
         <v>9.25</v>
@@ -3046,43 +3046,43 @@
         <v>29</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF23" t="n">
         <v>8.75</v>
       </c>
       <c r="AG23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH23" t="n">
         <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -3359,19 +3359,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -3398,7 +3398,7 @@
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
@@ -3410,10 +3410,10 @@
         <v>34</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
         <v>8.5</v>
@@ -3443,7 +3443,7 @@
         <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>29</v>
@@ -4208,10 +4208,10 @@
         <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
         <v>1.1</v>
@@ -4943,7 +4943,7 @@
         <v>1.06</v>
       </c>
       <c r="K39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L39" t="n">
         <v>1.33</v>
@@ -4952,10 +4952,10 @@
         <v>3.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O39" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.4</v>
@@ -5053,10 +5053,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
         <v>2.15</v>
@@ -5068,10 +5068,10 @@
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N40" t="n">
         <v>1.7</v>
@@ -5107,7 +5107,7 @@
         <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
         <v>13</v>
@@ -5128,7 +5128,7 @@
         <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
@@ -5137,7 +5137,7 @@
         <v>21</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
         <v>23</v>
@@ -5297,13 +5297,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
@@ -5318,10 +5318,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
@@ -5342,10 +5342,10 @@
         <v>10</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5354,7 +5354,7 @@
         <v>23</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-26.xlsx
@@ -686,7 +686,7 @@
         <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
         <v>13</v>
@@ -707,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
         <v>1.14</v>
@@ -1106,19 +1106,19 @@
         <v>3.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
         <v>10</v>
@@ -1133,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1317,19 +1317,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
         <v>1.25</v>
@@ -1395,7 +1395,7 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>67</v>
@@ -1445,19 +1445,19 @@
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N9" t="n">
         <v>2.05</v>
@@ -1469,19 +1469,19 @@
         <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
@@ -1493,13 +1493,13 @@
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB9" t="n">
         <v>12</v>
@@ -1520,7 +1520,7 @@
         <v>11.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
         <v>35</v>
@@ -1561,94 +1561,94 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>4.15</v>
+        <v>4.85</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="N10" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U10" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="V10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>16</v>
       </c>
       <c r="Y10" t="n">
         <v>32</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="n">
         <v>900</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1686,22 +1686,22 @@
         <v>1.83</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>2.1</v>
@@ -1716,10 +1716,10 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>6.5</v>
@@ -1734,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>29</v>
@@ -1764,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1868,7 +1868,7 @@
         <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
@@ -1939,7 +1939,7 @@
         <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
         <v>1.25</v>
@@ -1948,10 +1948,10 @@
         <v>3.75</v>
       </c>
       <c r="N13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2070,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2186,16 +2186,16 @@
         <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I24" t="n">
         <v>2.7</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.63</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3150,10 +3150,10 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3964,10 +3964,10 @@
         <v>1.45</v>
       </c>
       <c r="J31" t="n">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>1.02</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.08</v>
@@ -4080,10 +4080,10 @@
         <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4104,16 +4104,16 @@
         <v>2.15</v>
       </c>
       <c r="P32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T32" t="n">
         <v>13</v>
@@ -4134,10 +4134,10 @@
         <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB32" t="n">
         <v>13</v>
@@ -4149,7 +4149,7 @@
         <v>151</v>
       </c>
       <c r="AE32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
@@ -4214,7 +4214,7 @@
         <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="M33" t="n">
         <v>6.5</v>
@@ -5062,10 +5062,10 @@
         <v>2.15</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
         <v>1.2</v>
@@ -5074,10 +5074,10 @@
         <v>4.33</v>
       </c>
       <c r="N40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O40" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P40" t="n">
         <v>1.33</v>
@@ -5312,16 +5312,16 @@
         <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N42" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O42" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
@@ -5434,16 +5434,16 @@
         <v>11</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P43" t="n">
         <v>1.36</v>
@@ -5785,13 +5785,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="J46" t="n">
         <v>1.01</v>
@@ -5806,22 +5806,22 @@
         <v>11</v>
       </c>
       <c r="N46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="O46" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="P46" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S46" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T46" t="n">
         <v>41</v>
@@ -5845,19 +5845,19 @@
         <v>34</v>
       </c>
       <c r="AA46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
         <v>12</v>
@@ -5872,7 +5872,7 @@
         <v>10</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
